--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.031021-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.031021-1.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3933,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4655,12 +4655,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5339,12 +5339,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6137,12 +6137,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6479,12 +6479,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6943,12 +6943,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7175,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7213,12 +7213,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7977,12 +7977,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8471,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9429,12 +9429,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9695,12 +9695,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9771,12 +9771,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9923,12 +9923,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10151,12 +10151,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10607,12 +10607,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11367,12 +11367,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11405,12 +11405,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11747,12 +11747,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11861,12 +11861,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12127,12 +12127,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12431,12 +12431,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12773,12 +12773,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13651,12 +13651,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13765,12 +13765,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13991,12 +13991,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14181,12 +14181,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14831,12 +14831,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15173,12 +15173,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16159,12 +16159,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16311,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16425,12 +16425,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16501,12 +16501,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16653,12 +16653,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16805,12 +16805,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16843,12 +16843,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16923,12 +16923,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16999,12 +16999,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17265,12 +17265,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17341,12 +17341,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17569,12 +17569,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18219,12 +18219,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18489,12 +18489,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18717,12 +18717,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18755,12 +18755,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18793,12 +18793,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18831,12 +18831,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19021,12 +19021,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19097,12 +19097,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19211,12 +19211,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19405,12 +19405,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19443,12 +19443,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19709,12 +19709,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20435,12 +20435,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20473,12 +20473,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20625,12 +20625,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20701,12 +20701,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20777,12 +20777,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20815,12 +20815,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21309,12 +21309,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21689,12 +21689,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21841,12 +21841,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21993,12 +21993,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22107,12 +22107,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22297,12 +22297,12 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23023,12 +23023,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23403,12 +23403,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23517,12 +23517,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23707,12 +23707,12 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23745,12 +23745,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23821,12 +23821,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24505,12 +24505,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24771,12 +24771,12 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24809,12 +24809,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24885,12 +24885,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25037,12 +25037,12 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25307,12 +25307,12 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26071,12 +26071,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -26109,12 +26109,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26793,12 +26793,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26831,12 +26831,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26907,12 +26907,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
